--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -47,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -87,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,11 +119,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -126,15 +148,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,91 +469,85 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>43867</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43808</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>50185</v>
-      </c>
-      <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
-        <v>574</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="5">
-        <f>PRODUCT(D2,E2)</f>
-        <v>2577.2600000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49111</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>21529</v>
-      </c>
-      <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
-        <v>337</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="5">
-        <f>PRODUCT(D3,E3)</f>
-        <v>818.91000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+        <v>20878</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>43836</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -536,18 +557,25 @@
         <v>49611</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
+        <f>SUM(C4,-C2)</f>
         <v>500</v>
       </c>
       <c r="E4" s="2">
         <v>4.49</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <f>PRODUCT(D4,E4)</f>
         <v>2245</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>3008.02</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3008.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -556,420 +584,138 @@
         <v>21192</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" ref="D5:D7" si="0">SUM(C5,-C3)</f>
         <v>314</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <f>PRODUCT(D5,E5)</f>
         <v>763.0200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>43808</v>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43867</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>49111</v>
+        <v>50185</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D23" si="0">SUM(C6,-C8)</f>
-        <v>583</v>
+        <f t="shared" si="0"/>
+        <v>574</v>
       </c>
       <c r="E6" s="2">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="1">PRODUCT(D6,E6)</f>
-        <v>2617.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <f>PRODUCT(D6,E6)</f>
+        <v>2577.2600000000002</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>3396.17</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3396.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>20878</v>
+        <v>21529</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>801.90000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>43776</v>
+      <c r="F7" s="8">
+        <f>PRODUCT(D7,E7)</f>
+        <v>818.91000000000008</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43896</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>48528</v>
+        <v>50672</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <v>487</v>
       </c>
       <c r="E8" s="2">
         <v>4.49</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>2155.2000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <f>PRODUCT(D8,E8)</f>
+        <v>2186.63</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>2942.36</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2942.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>20548</v>
+        <v>21840</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f t="shared" si="1"/>
+        <v>311</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>631.80000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>43745</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>48048</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>389</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>1746.6100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>20288</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>481.14000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>43714</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>47659</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F23" si="2">PRODUCT(D12,E12)</f>
-        <v>1589.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>20090</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>315.90000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>43683</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>47305</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>1575.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>19960</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>374.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>43649</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>46954</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>965.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>19806</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>102.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>43618</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>46739</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>418</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>1910.2600000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>19764</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>43593</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>46321</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>2307.8500000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>19763</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43557</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>45816</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>19762</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43464</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>45815</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>19761</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F9" s="8">
+        <f>PRODUCT(D9,E9)</f>
+        <v>755.73</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G4:G9)</f>
+        <v>9346.5500000000011</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H4:H9)</f>
+        <v>9346.5500000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>2245</v>
       </c>
       <c r="G4" s="10">
@@ -584,14 +584,14 @@
         <v>21192</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="0">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
         <v>314</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="0"/>
         <v>763.0200000000001</v>
       </c>
       <c r="G5" s="9"/>
@@ -608,14 +608,14 @@
         <v>50185</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>574</v>
       </c>
       <c r="E6" s="2">
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="0"/>
         <v>2577.2600000000002</v>
       </c>
       <c r="G6" s="10">
@@ -635,14 +635,14 @@
         <v>21529</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="0"/>
         <v>818.91000000000008</v>
       </c>
       <c r="G7" s="9"/>
@@ -659,14 +659,14 @@
         <v>50672</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
         <v>487</v>
       </c>
       <c r="E8" s="2">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="0"/>
         <v>2186.63</v>
       </c>
       <c r="G8" s="10">
@@ -686,36 +686,87 @@
         <v>21840</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>311</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>755.73</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
-        <v>10</v>
+      <c r="A10" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>51163</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <v>491</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">PRODUCT(D10,E10)</f>
+        <v>2204.59</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM(G4:G9)</f>
-        <v>9346.5500000000011</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H4:H9)</f>
-        <v>9346.5500000000011</v>
+        <f>SUM(F10,F11)</f>
+        <v>2948.17</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2948.17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>22146</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>743.58</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G4:G11)</f>
+        <v>12294.720000000001</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H4:H11)</f>
+        <v>12294.720000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,22 +751,73 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="6">
+        <v>43957</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>51445</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>282</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="6">PRODUCT(D12,E12)</f>
+        <v>1266.18</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>1798.3500000000001</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1798.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>22365</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>532.17000000000007</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <f>SUM(G4:G11)</f>
         <v>12294.720000000001</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <f>SUM(H4:H11)</f>
         <v>12294.720000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,22 +802,73 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9" t="s">
-        <v>10</v>
+      <c r="A14" s="6">
+        <v>43990</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>51582</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>137</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="8">PRODUCT(D14,E14)</f>
+        <v>615.13</v>
       </c>
       <c r="G14" s="10">
-        <f>SUM(G4:G11)</f>
-        <v>12294.720000000001</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H4:H11)</f>
-        <v>12294.720000000001</v>
+        <f>SUM(F14,F15)</f>
+        <v>1067.1100000000001</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1067.1099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>22551</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>451.98</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G4:G15)</f>
+        <v>15160.180000000002</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H4:H15)</f>
+        <v>15160.180000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,22 +853,73 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="9" t="s">
-        <v>10</v>
+      <c r="A16" s="6">
+        <v>44014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>51892</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>310</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="10">PRODUCT(D16,E16)</f>
+        <v>1391.9</v>
       </c>
       <c r="G16" s="10">
-        <f>SUM(G4:G15)</f>
-        <v>15160.180000000002</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(H4:H15)</f>
-        <v>15160.180000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9"/>
+        <f>SUM(F16,F17)</f>
+        <v>1928.9300000000003</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1928.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22772</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
+        <v>221</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="10"/>
+        <v>537.03000000000009</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G4:G17)</f>
+        <v>17089.11</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H4:H17)</f>
+        <v>17089.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -904,22 +904,73 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
+      <c r="A18" s="6">
+        <v>44050</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>52132</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
+        <v>240</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="12">PRODUCT(D18,E18)</f>
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1257.9000000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1257.9000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>22822</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <f>SUM(G4:G17)</f>
         <v>17089.11</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f>SUM(H4:H17)</f>
         <v>17089.11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,12 +88,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,22 +964,73 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
-        <v>10</v>
+      <c r="A20" s="6">
+        <v>44082</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>52332</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="14">PRODUCT(D20,E20)</f>
+        <v>942</v>
       </c>
       <c r="G20" s="10">
-        <f>SUM(G4:G17)</f>
-        <v>17089.11</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H4:H17)</f>
-        <v>17089.11</v>
+        <f>SUM(F20,F21)</f>
+        <v>1092.45</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1092.45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>22881</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="13"/>
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="14"/>
+        <v>150.44999999999999</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G4:G20)</f>
+        <v>19439.460000000003</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H20)</f>
+        <v>19439.460000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +175,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,22 +1024,73 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="6">
+        <v>44110</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>52602</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="15">SUM(C22,-C20)</f>
+        <v>270</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="16">PRODUCT(D22,E22)</f>
+        <v>1271.7</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>1972.95</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1972.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>23156</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="15"/>
+        <v>275</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="16"/>
+        <v>701.25</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G24" s="10">
         <f>SUM(G4:G20)</f>
         <v>19439.460000000003</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H24" s="10">
         <f>SUM(H4:H20)</f>
         <v>19439.460000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,18 +536,18 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43808</v>
+        <v>44082</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>49111</v>
+        <v>52332</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,8 +555,8 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>20878</v>
+      <c r="C3" s="11">
+        <v>22881</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -566,31 +566,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43836</v>
+        <v>44110</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>49611</v>
+        <v>52602</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>500</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>270</v>
       </c>
       <c r="E4" s="2">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
-        <v>2245</v>
+        <f t="shared" ref="F4:F5" si="1">PRODUCT(D4,E4)</f>
+        <v>1271.7</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>3008.02</v>
+        <v>1972.95</v>
       </c>
       <c r="H4" s="9">
-        <v>3008.02</v>
+        <v>1972.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,50 +598,50 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>21192</v>
+      <c r="C5" s="12">
+        <v>23156</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>314</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>763.0200000000001</v>
+        <f t="shared" si="1"/>
+        <v>701.25</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43867</v>
+        <v>44144</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>50185</v>
+        <v>53020</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>574</v>
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>418</v>
       </c>
       <c r="E6" s="2">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2577.2600000000002</v>
+        <f t="shared" ref="F6:F7" si="3">PRODUCT(D6,E6)</f>
+        <v>1968.78</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3396.17</v>
+        <v>2575.6799999999998</v>
       </c>
       <c r="H6" s="9">
-        <v>3396.17</v>
+        <v>2575.6799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,453 +649,45 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>21529</v>
+      <c r="C7" s="12">
+        <v>23394</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>337</v>
+        <f t="shared" si="2"/>
+        <v>238</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>818.91000000000008</v>
+        <f t="shared" si="3"/>
+        <v>606.9</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>43896</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>50672</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>487</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>2186.63</v>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>2942.36</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2942.36</v>
+        <f>SUM(G2:G7)</f>
+        <v>4548.63</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H2:H7)</f>
+        <v>4548.63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21840</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>311</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>755.73</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>43928</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>51163</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
-        <v>491</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="4">PRODUCT(D10,E10)</f>
-        <v>2204.59</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>2948.17</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2948.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>22146</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>306</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>743.58</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>43957</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>51445</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
-        <v>282</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="6">PRODUCT(D12,E12)</f>
-        <v>1266.18</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>1798.3500000000001</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1798.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>22365</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="6"/>
-        <v>532.17000000000007</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>43990</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>51582</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
-        <v>137</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="8">PRODUCT(D14,E14)</f>
-        <v>615.13</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>1067.1100000000001</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1067.1099999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>22551</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>451.98</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44014</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>51892</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
-        <v>310</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="10">PRODUCT(D16,E16)</f>
-        <v>1391.9</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>1928.9300000000003</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1928.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>22772</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>221</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="10"/>
-        <v>537.03000000000009</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44050</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>52132</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
-        <v>240</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="12">PRODUCT(D18,E18)</f>
-        <v>1130.4000000000001</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>1257.9000000000001</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1257.9000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>22822</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="12"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44082</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>52332</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
-        <v>200</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="14">PRODUCT(D20,E20)</f>
-        <v>942</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>1092.45</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1092.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
-        <v>22881</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="14"/>
-        <v>150.44999999999999</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>44110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>52602</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="15">SUM(C22,-C20)</f>
-        <v>270</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="16">PRODUCT(D22,E22)</f>
-        <v>1271.7</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>1972.95</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1972.95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>23156</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="15"/>
-        <v>275</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>701.25</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(G4:G20)</f>
-        <v>19439.460000000003</v>
-      </c>
-      <c r="H24" s="10">
-        <f>SUM(H4:H20)</f>
-        <v>19439.460000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,22 +667,73 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
-        <v>10</v>
+      <c r="A8" s="6">
+        <v>44173</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>53580</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>560</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">PRODUCT(D8,E8)</f>
+        <v>2637.6</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>4548.63</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>4548.63</v>
+        <f>SUM(F8,F9)</f>
+        <v>3420.45</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3420.45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>23701</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>782.84999999999991</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>7969.08</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>7969.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,7 +487,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -718,22 +718,73 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="6">
+        <v>44204</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>54258</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>678</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="7">PRODUCT(D10,E10)</f>
+        <v>3193.38</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>4279.68</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4279.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>24127</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>426</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>1086.3</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G12" s="10">
         <f>SUM(G2:G9)</f>
         <v>7969.08</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H12" s="10">
         <f>SUM(H2:H9)</f>
         <v>7969.08</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,22 +769,175 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
-        <v>10</v>
+      <c r="A12" s="6">
+        <v>44236</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>55004</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>746</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="9">PRODUCT(D12,E12)</f>
+        <v>3513.66</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>7969.08</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>7969.08</v>
+        <f>SUM(F12,F13)</f>
+        <v>4967.16</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4967.16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>24697</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>570</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="9"/>
+        <v>1453.5</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44264</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>55788</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>784</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="11">PRODUCT(D14,E14)</f>
+        <v>3692.64</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>4998.24</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4998.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>25209</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="11"/>
+        <v>1305.5999999999999</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44293</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>56641</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>853</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="13">PRODUCT(D16,E16)</f>
+        <v>4017.63</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>5032.53</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5032.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>25607</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="12"/>
+        <v>398</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="13"/>
+        <v>1014.9</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G2:G17)</f>
+        <v>27246.689999999995</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H17)</f>
+        <v>27246.689999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,22 +922,73 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
-        <v>10</v>
+      <c r="A18" s="6">
+        <v>44323</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>57151</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>510</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="15">PRODUCT(D18,E18)</f>
+        <v>2402.1</v>
       </c>
       <c r="G18" s="10">
-        <f>SUM(G2:G17)</f>
-        <v>27246.689999999995</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H2:H17)</f>
-        <v>27246.689999999995</v>
+        <f>SUM(F18,F19)</f>
+        <v>2940.1499999999996</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2940.15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>25818</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="15"/>
+        <v>538.04999999999995</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(G2:G19)</f>
+        <v>30186.839999999997</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>30186.839999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -973,22 +973,73 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
+      <c r="A20" s="6">
+        <v>44357</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>57525</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>374</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="17">PRODUCT(D20,E20)</f>
+        <v>1761.54</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>2271.54</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2271.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>26018</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="17"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <f>SUM(G2:G19)</f>
         <v>30186.839999999997</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <f>SUM(H2:H19)</f>
         <v>30186.839999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1024,22 +1024,73 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>57865</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>340</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="19">PRODUCT(D22,E22)</f>
+        <v>1601.4</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2093.5500000000002</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2093.5500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>26211</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="18"/>
+        <v>193</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="19"/>
+        <v>492.15</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G24" s="10">
         <f>SUM(G2:G19)</f>
         <v>30186.839999999997</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H24" s="10">
         <f>SUM(H2:H19)</f>
         <v>30186.839999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1075,22 +1075,73 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
+      <c r="A24" s="6">
+        <v>44411</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>58069</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>204</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="21">PRODUCT(D24,E24)</f>
+        <v>1011.84</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>1349.52</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2093.5500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>26337</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="20"/>
+        <v>126</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="21"/>
+        <v>337.68</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G26" s="10">
         <f>SUM(G2:G19)</f>
         <v>30186.839999999997</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H26" s="10">
         <f>SUM(H2:H19)</f>
         <v>30186.839999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,11 +174,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,20 +538,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>44082</v>
+      <c r="A2" s="12">
+        <v>44474</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>52332</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
+        <v>58656</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>587</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="1">PRODUCT(D2,E2)</f>
+        <v>2911.52</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(F2,F3)</f>
+        <v>3605.64</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3605.64</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -556,41 +572,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>22881</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
+        <v>26596</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="1"/>
+        <v>694.12</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44110</v>
+      <c r="A4" s="13">
+        <v>44411</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>52602</v>
+        <v>58069</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>270</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>204</v>
       </c>
       <c r="E4" s="2">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">PRODUCT(D4,E4)</f>
-        <v>1271.7</v>
+        <f t="shared" ref="F4:F7" si="3">PRODUCT(D4,E4)</f>
+        <v>1011.84</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1972.95</v>
+        <v>1349.52</v>
       </c>
       <c r="H4" s="9">
-        <v>1972.95</v>
+        <v>1349.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,50 +622,50 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>23156</v>
+      <c r="C5" s="11">
+        <v>26337</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>701.25</v>
+        <f t="shared" si="3"/>
+        <v>337.68</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44144</v>
+        <v>44377</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>53020</v>
+        <v>57865</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>418</v>
+        <f>SUM(C6,-C8)</f>
+        <v>340</v>
       </c>
       <c r="E6" s="2">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">PRODUCT(D6,E6)</f>
-        <v>1968.78</v>
+        <f t="shared" si="3"/>
+        <v>1601.4</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>2575.6799999999998</v>
+        <v>2093.5500000000002</v>
       </c>
       <c r="H6" s="9">
-        <v>2575.6799999999998</v>
+        <v>2093.5500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,499 +673,64 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
-        <v>23394</v>
+      <c r="C7" s="11">
+        <v>26211</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>238</v>
+        <f>SUM(C7,-C9)</f>
+        <v>193</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="3"/>
-        <v>606.9</v>
+        <v>492.15</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44173</v>
+        <v>44357</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>53580</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>560</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">PRODUCT(D8,E8)</f>
-        <v>2637.6</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>3420.45</v>
-      </c>
-      <c r="H8" s="9">
-        <v>3420.45</v>
-      </c>
+        <v>57525</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
-        <v>23701</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>307</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>782.84999999999991</v>
-      </c>
+      <c r="C9" s="11">
+        <v>26018</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44204</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>54258</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>678</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="7">PRODUCT(D10,E10)</f>
-        <v>3193.38</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>4279.68</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4279.68</v>
-      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>24127</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>426</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>1086.3</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44236</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>55004</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
-        <v>746</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="9">PRODUCT(D12,E12)</f>
-        <v>3513.66</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>4967.16</v>
-      </c>
-      <c r="H12" s="9">
-        <v>4967.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>24697</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>570</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="9"/>
-        <v>1453.5</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44264</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>55788</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
-        <v>784</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="11">PRODUCT(D14,E14)</f>
-        <v>3692.64</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>4998.24</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4998.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>25209</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>512</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="11"/>
-        <v>1305.5999999999999</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44293</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>56641</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
-        <v>853</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="13">PRODUCT(D16,E16)</f>
-        <v>4017.63</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>5032.53</v>
-      </c>
-      <c r="H16" s="9">
-        <v>5032.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>25607</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="12"/>
-        <v>398</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="13"/>
-        <v>1014.9</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44323</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>57151</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
-        <v>510</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="15">PRODUCT(D18,E18)</f>
-        <v>2402.1</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>2940.1499999999996</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2940.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>25818</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="14"/>
-        <v>211</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="15"/>
-        <v>538.04999999999995</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44357</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>57525</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>374</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="17">PRODUCT(D20,E20)</f>
-        <v>1761.54</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>2271.54</v>
-      </c>
-      <c r="H20" s="9">
-        <v>2271.54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>26018</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="16"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="17"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>44377</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>57865</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>340</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="19">PRODUCT(D22,E22)</f>
-        <v>1601.4</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>2093.5500000000002</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2093.5500000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>26211</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="18"/>
-        <v>193</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="19"/>
-        <v>492.15</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>44411</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>58069</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
-        <v>204</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="21">PRODUCT(D24,E24)</f>
-        <v>1011.84</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(F24,F25)</f>
-        <v>1349.52</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2093.5500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
-        <v>26337</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="20"/>
-        <v>126</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="21"/>
-        <v>337.68</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(G2:G19)</f>
-        <v>30186.839999999997</v>
-      </c>
-      <c r="H26" s="10">
-        <f>SUM(H2:H19)</f>
-        <v>30186.839999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/46ee.xlsx
+++ b/sputnik/personal/ee/46ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,31 +539,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44474</v>
+        <v>44537</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>58656</v>
+        <v>59682</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>587</v>
+        <v>790</v>
       </c>
       <c r="E2" s="2">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">PRODUCT(D2,E2)</f>
-        <v>2911.52</v>
+        <v>3918.4</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>3605.64</v>
+        <v>4998.4400000000005</v>
       </c>
       <c r="H2" s="9">
-        <v>3605.64</v>
+        <v>4998.4399999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,49 +572,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>26596</v>
+        <v>27243</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>403</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>694.12</v>
+        <v>1080.04</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44411</v>
+        <v>44508</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>58069</v>
+        <v>58892</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E4" s="2">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="3">PRODUCT(D4,E4)</f>
-        <v>1011.84</v>
+        <f t="shared" ref="F4:F5" si="3">PRODUCT(D4,E4)</f>
+        <v>1170.56</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1349.52</v>
+        <v>1824.48</v>
       </c>
       <c r="H4" s="9">
-        <v>1349.52</v>
+        <v>1824.48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -623,49 +623,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>26337</v>
+        <v>26840</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>337.68</v>
+        <v>653.92000000000007</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44377</v>
+      <c r="A6" s="13">
+        <v>44474</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>57865</v>
+        <v>58656</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C8)</f>
-        <v>340</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>587</v>
       </c>
       <c r="E6" s="2">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>1601.4</v>
+        <f t="shared" ref="F6:F7" si="5">PRODUCT(D6,E6)</f>
+        <v>2911.52</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>2093.5500000000002</v>
+        <v>3605.64</v>
       </c>
       <c r="H6" s="9">
-        <v>2093.5500000000002</v>
+        <v>3605.64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,37 +674,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>26211</v>
+        <v>26596</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
-        <v>193</v>
+        <f t="shared" si="4"/>
+        <v>259</v>
       </c>
       <c r="E7" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>492.15</v>
+        <f t="shared" si="5"/>
+        <v>694.12</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44357</v>
+      <c r="A8" s="13">
+        <v>44411</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>57525</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+        <v>58069</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>204</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F11" si="7">PRODUCT(D8,E8)</f>
+        <v>1011.84</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1349.52</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1349.52</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -712,25 +725,114 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>26018</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
+        <v>26337</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="7"/>
+        <v>337.68</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>57865</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C12)</f>
+        <v>340</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="7"/>
+        <v>1601.4</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>2093.5500000000002</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2093.5500000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>26211</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C13)</f>
+        <v>193</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>492.15</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44357</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>57525</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>26018</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
